--- a/wireframe_practice.xlsx
+++ b/wireframe_practice.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E8B438-9E00-4D1F-BFB8-DDDD3F081864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2294D1CA-4D84-4245-ACE6-5A998E326054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="679" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="679" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="使える！テンプレート" sheetId="30" r:id="rId1"/>
@@ -854,15 +854,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>7201</xdr:colOff>
+      <xdr:colOff>6296</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>58105</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>905</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>223360</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -877,8 +877,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="455436" y="1626929"/>
-          <a:ext cx="11199587" cy="27059372"/>
+          <a:off x="455681" y="1572846"/>
+          <a:ext cx="11228319" cy="28535923"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1018,7 +1018,7 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1393,9 +1393,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>27781</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>75407</xdr:rowOff>
+      <xdr:colOff>149895</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>39077</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="11084720" cy="1495425"/>
     <xdr:sp macro="" textlink="">
@@ -1411,7 +1411,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="472281" y="28967907"/>
+          <a:off x="599280" y="33068846"/>
           <a:ext cx="11084720" cy="1495425"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1925,16 +1925,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>196103</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>84044</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
+      <xdr:rowOff>71650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>212912</xdr:colOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>134216</xdr:rowOff>
+      <xdr:rowOff>119275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1949,8 +1949,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8040221" y="1879532"/>
-          <a:ext cx="3378573" cy="271743"/>
+          <a:off x="8421220" y="1924356"/>
+          <a:ext cx="3490633" cy="279213"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1997,8 +1997,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>204354</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>219941</xdr:rowOff>
     </xdr:from>
@@ -2021,8 +2021,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8048472" y="2237000"/>
-          <a:ext cx="3179822" cy="314019"/>
+          <a:off x="8426824" y="2304235"/>
+          <a:ext cx="3175000" cy="328961"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2271,16 +2271,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>7378</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>231496</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>12038</xdr:rowOff>
+      <xdr:rowOff>4567</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>213691</xdr:colOff>
+      <xdr:colOff>206221</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>12038</xdr:rowOff>
+      <xdr:rowOff>4567</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2295,8 +2295,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5109465" y="3026908"/>
-          <a:ext cx="2293530" cy="695739"/>
+          <a:off x="5094849" y="3015214"/>
+          <a:ext cx="2290607" cy="694765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2349,13 +2349,13 @@
       <xdr:col>32</xdr:col>
       <xdr:colOff>2409</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>15351</xdr:rowOff>
+      <xdr:rowOff>7881</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>208721</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>15351</xdr:rowOff>
+      <xdr:rowOff>7881</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2370,8 +2370,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7423626" y="3030221"/>
-          <a:ext cx="2293530" cy="695739"/>
+          <a:off x="7413233" y="3018528"/>
+          <a:ext cx="2290606" cy="694765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2421,16 +2421,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>229352</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>5235</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>18664</xdr:rowOff>
+      <xdr:rowOff>11194</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>203752</xdr:colOff>
+      <xdr:colOff>211223</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>18664</xdr:rowOff>
+      <xdr:rowOff>11194</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2445,8 +2445,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9737787" y="3033534"/>
-          <a:ext cx="2293530" cy="695739"/>
+          <a:off x="9731941" y="3021841"/>
+          <a:ext cx="2290282" cy="694765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2659,11 +2659,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>56030</xdr:colOff>
+      <xdr:colOff>59766</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="11082617" cy="328423"/>
+    <xdr:ext cx="11467352" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="33" name="テキスト ボックス 32">
@@ -2677,8 +2677,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="504265" y="7048500"/>
-          <a:ext cx="11082617" cy="328423"/>
+          <a:off x="522942" y="7280088"/>
+          <a:ext cx="11467352" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2747,6 +2747,5048 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19539</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>214924</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{095A54AD-F62E-4128-A405-CDC9F87D0D9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="468924" y="7424615"/>
+          <a:ext cx="11205308" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>キャンペーン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9769</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19537</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="四角形: 上の 2 つの角を丸める 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA9CC70-0731-4938-8BD7-87583251A355}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683846" y="8323384"/>
+          <a:ext cx="4034692" cy="459153"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="50800" cap="sq" cmpd="sng">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>モーメントカード新規ご入会</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>220784</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>5862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>211014</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>15630</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="四角形: 上の 2 つの角を丸める 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6AE3C24-2357-479F-BA82-E8A2E0522DF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4939322" y="8319477"/>
+          <a:ext cx="4034692" cy="459153"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="50800" cap="sq" cmpd="sng">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>モーメントカード会員様向け</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>188546</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A0ABB22-E6B5-4EEA-A1E0-AE48D8D17ACA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674079" y="9000392"/>
+          <a:ext cx="3370383" cy="1748692"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="pct10">
+          <a:fgClr>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:prstClr val="white"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln w="50800" cap="sq" cmpd="sng">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>158263</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>115278</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>188546</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05B1362A-9C9A-4D21-95B7-0B891CC6054E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4427417" y="9000392"/>
+          <a:ext cx="3327399" cy="1748692"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="pct10">
+          <a:fgClr>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:prstClr val="white"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln w="50800" cap="sq" cmpd="sng">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>48848</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>216878</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>188546</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C9EC4B-9AB4-41CF-B579-84538D13F312}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8137771" y="9000392"/>
+          <a:ext cx="3313722" cy="1748692"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="pct10">
+          <a:fgClr>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:prstClr val="white"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln w="50800" cap="sq" cmpd="sng">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>146539</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2158796" cy="492443"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17CDA977-76A8-444B-8BEF-5000F1487928}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="595924" y="10912231"/>
+          <a:ext cx="2158796" cy="492443"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>いつでもポイント</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>倍</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123093</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>113323</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2031325" cy="492443"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B8DC6BA-D10F-4D60-8CD0-047DA93B5FB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4392247" y="10898554"/>
+          <a:ext cx="2031325" cy="492443"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>振込手数料実質無料</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>138723</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>109415</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1620957" cy="492443"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F5AD88-EECE-405A-9D73-D2AF8EF17D7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8002954" y="10894646"/>
+          <a:ext cx="1620957" cy="492443"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ポイントクラブ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDDFF23E-3BA5-40E0-A164-C62844287133}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="679174" y="8839030"/>
+          <a:ext cx="10866783" cy="6796"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>7815</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4493538" cy="492443"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C1FE43-857F-49DC-910D-4B738D5A0DB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7041662" y="11691815"/>
+          <a:ext cx="4493538" cy="492443"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>モーメントカード新規ご入会キャンペーン一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>15630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>220785</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>5861</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5834C3DB-AEB1-4502-839D-9529B603ED0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="474785" y="12373707"/>
+          <a:ext cx="11205308" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>おすすめのクレジットカード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>10747</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>68385</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>20515</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F20714-18F5-4123-9EED-3FA660A23410}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674078" y="13492285"/>
+          <a:ext cx="2315307" cy="1582615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="wdDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="bg2"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln w="50800" cap="sq" cmpd="sng">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127001</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>10747</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>195385</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>20515</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3010943E-4D36-4CC6-ADB4-768E0751A511}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3497386" y="13492285"/>
+          <a:ext cx="2315307" cy="1582615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="wdDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="bg2"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln w="50800" cap="sq" cmpd="sng">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>29309</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>10747</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>97693</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>20515</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2465A487-4DE7-4C5A-866A-8EB7D783A4B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6320694" y="13492285"/>
+          <a:ext cx="2315307" cy="1582615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="wdDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="bg2"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln w="50800" cap="sq" cmpd="sng">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>156309</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>10747</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>20515</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{975B1AC1-0336-4648-BB52-5CAD964C9F48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144001" y="13492285"/>
+          <a:ext cx="2315307" cy="1582615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="wdDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="bg2"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln w="50800" cap="sq" cmpd="sng">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>146743</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>132788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>194854</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>125833</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F240BC1-2D12-4333-BB40-B6D12FA5D645}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="596128" y="15187173"/>
+          <a:ext cx="1620957" cy="442429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>モーメントカード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>58820</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>132788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>150999</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>125833</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0FEBAC-4D6B-461E-B435-693A7EFE5E61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429205" y="15187173"/>
+          <a:ext cx="2339102" cy="442429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゴールドモーメントカード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>136974</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>132788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>4460</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>125833</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C8597E-61FE-46E8-A6CB-23896E2A160D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6203666" y="15187173"/>
+          <a:ext cx="2339102" cy="442429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ビジネスモーメントカード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>61386</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>94879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>5847</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>87924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C659F9F6-6E3A-4E5C-9A9E-881029749B65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9049078" y="15149264"/>
+          <a:ext cx="1966692" cy="442429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ETC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>モーメントカード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>116399</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>116399</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C0F909-C49C-4639-A92C-D8AB02930800}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4834937" y="15728462"/>
+          <a:ext cx="2471616" cy="674076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>カード一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>68384</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>9768</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A7F786A-A0EB-46A5-A701-603E85F20C3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674077" y="17076615"/>
+          <a:ext cx="2315307" cy="1582615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="dkVert">
+          <a:fgClr>
+            <a:schemeClr val="bg2"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln w="50800" cap="sq" cmpd="sng">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>195384</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>9768</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28AB70C7-1841-4667-8945-6B9DF49059DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3497385" y="17076615"/>
+          <a:ext cx="2315307" cy="1582615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="dkVert">
+          <a:fgClr>
+            <a:schemeClr val="bg2"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln w="50800" cap="sq" cmpd="sng">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>29308</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>97692</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>9768</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BAAD991-0AF8-4ADE-BD69-E9BA80065FB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6320693" y="17076615"/>
+          <a:ext cx="2315307" cy="1582615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="dkVert">
+          <a:fgClr>
+            <a:schemeClr val="bg2"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln w="50800" cap="sq" cmpd="sng">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>156308</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>9768</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{733C88CA-2D3D-446E-8618-6D0E4F7B2157}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="17076615"/>
+          <a:ext cx="2315307" cy="1582615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="dkVert">
+          <a:fgClr>
+            <a:schemeClr val="bg2"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln w="50800" cap="sq" cmpd="sng">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>146742</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>122041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>194853</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCA32991-A034-4413-AC89-0742A2B2A5A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="596127" y="18771503"/>
+          <a:ext cx="1620957" cy="492443"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>カードをつかう</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>58819</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>122041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>106930</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3520AF5D-A698-43D0-B4B2-19C67F407928}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429204" y="18771503"/>
+          <a:ext cx="1620957" cy="492443"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>カードをつくる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>136973</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>122041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>38422</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="テキスト ボックス 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82D8B237-CC57-4D50-AA4B-5DA6AB32B4BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6203665" y="18771503"/>
+          <a:ext cx="800219" cy="492443"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>かりる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>61385</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>84132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>168018</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>127191</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="テキスト ボックス 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92B3E9DC-2920-4022-BD82-2F013A9F8B3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9049077" y="18733594"/>
+          <a:ext cx="1005403" cy="492443"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>そなえる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26260555-FB3D-4D52-841D-D774B01F1A13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674077" y="19323539"/>
+          <a:ext cx="2022231" cy="1348153"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>カードの利用方法</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>リボ払い・増額設定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>公共料金のお支払い</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>キャッシング</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>175845</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>175846</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="テキスト ボックス 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD008A56-D9C1-48C6-89A2-3B08FF26AB82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3546230" y="19323539"/>
+          <a:ext cx="2022231" cy="1348153"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>カード一覧</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>お得なカード特典</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ビジネスカード</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>カード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>166077</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>166077</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>224691</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="テキスト ボックス 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E212CBE8-1750-498F-9303-E93213266EC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9153769" y="19323538"/>
+          <a:ext cx="2022231" cy="1348153"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>生命保険</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>損害保険</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>自動車保険</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>家財保険</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="テキスト ボックス 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92690900-9A46-4029-910A-6D046C418F3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6291385" y="19323539"/>
+          <a:ext cx="2022231" cy="1348153"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>カードローン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BIG</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>住宅ローン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>WEB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>マイカーローン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="テキスト ボックス 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB21B35C-55ED-44AB-BFEC-DCEF5B8FAB6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123462" y="21121077"/>
+          <a:ext cx="9661769" cy="1348154"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>カード利用時にお取引を保留させていただく場合がございます。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>お引越し等で住所が変わられた際には、お早めに住所変更の届出をお願いいたします。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>お客さまの情報を盗み取ろうとするコンピューターウイルスにご注意ください。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>不正にポップアップ画面を表示させて、お客さま情報を盗み取ろうとする犯罪にご注意ください。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>140516</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>197970</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>75866</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="グラフィックス 73" descr="警告">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E25B282-98DE-4182-8C9B-3C752A370432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="814593" y="21136018"/>
+          <a:ext cx="282146" cy="285617"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>140516</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>73546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>197970</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="グラフィックス 74" descr="警告">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{628DC109-8B04-4008-9515-BFD268FAB138}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="814593" y="21419315"/>
+          <a:ext cx="282146" cy="285618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>140516</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>159372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>197970</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>220297</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="グラフィックス 76" descr="警告">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F141DA6-1546-4B97-9875-78EDBCF8F5F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="814593" y="21729834"/>
+          <a:ext cx="282146" cy="285617"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>140516</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>197970</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>60925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="グラフィックス 77" descr="警告">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A01A8F-FF99-4CFB-83C9-1A0D167E5C4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="814593" y="22019846"/>
+          <a:ext cx="282146" cy="285617"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9769</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>9768</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="四角形: 上の 2 つの角を丸める 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DE28646-460F-48CD-87EB-37CF773449D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683846" y="22693923"/>
+          <a:ext cx="3135923" cy="459153"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="50800" cap="sq" cmpd="sng">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>すべてのお知らせ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9769</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>9768</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="四角形: 上の 2 つの角を丸める 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C101FA6-7DAB-4908-ADCE-84F71EDF041D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4054231" y="22693923"/>
+          <a:ext cx="3135923" cy="459153"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="50800" cap="sq" cmpd="sng">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ニュース</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>リリース</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>214923</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>9768</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="四角形: 上の 2 つの角を丸める 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92FC5B66-FAF3-4D4E-BEEA-8DCDC6920B9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7414846" y="22693923"/>
+          <a:ext cx="3135923" cy="459153"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="50800" cap="sq" cmpd="sng">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>安心・安全にご利用いただく為に</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="直線コネクタ 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2239F496-6583-45B1-B39E-D91EB0DA2B2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674077" y="23143308"/>
+          <a:ext cx="10560538" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="テキスト ボックス 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7975A064-0926-4742-BE81-9AAC8018FD21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674077" y="23368000"/>
+          <a:ext cx="9886461" cy="1797538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2019</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>日　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>カード利用時にお取引を保留させていただく場合がございます。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2019</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>日　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>お引越し等で住所が変わられた際には、お早めに住所変更の届出をお願いいたします。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2019</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>日　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>お客さまの情報を盗み取ろうとするコンピューターウイルスにご注意ください。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2019</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>日　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>不正にポップアップ画面を表示させて、お客さま情報を盗み取ろうとする犯罪にご注意ください。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2019</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>日　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>システムメンテナンス実施に伴う一部券面の審査時間の変更について</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="テキスト ボックス 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A2CB971-34ED-4698-9EEE-7488A07F550B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674077" y="25614923"/>
+          <a:ext cx="2471615" cy="449384"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クレジットカード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>74896</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>74897</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="テキスト ボックス 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C12760-D3A6-41C7-AB97-E6B41D8ACF3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3445281" y="25614924"/>
+          <a:ext cx="2471616" cy="449384"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ポイント</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>149794</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>149794</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="テキスト ボックス 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C32BDE9-A7BB-49AF-A5DC-2E42CE8C27A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6216486" y="25614923"/>
+          <a:ext cx="2471616" cy="449384"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>カードローン・キャッシング</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="テキスト ボックス 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A24F5E2A-9C21-44A0-B41C-4CD9EDB149C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8987692" y="25614923"/>
+          <a:ext cx="2471615" cy="449384"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>キャンペーン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="テキスト ボックス 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A1F7039-DACA-4745-BD80-D32564936DB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674077" y="26289000"/>
+          <a:ext cx="2471615" cy="2022231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>モーメントカードのメリット</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>機能・サービス</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>カード一覧</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>キャッシング</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>リボ払い</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>74897</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>74897</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="テキスト ボックス 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59100773-BEC6-4B4E-86EC-7B026C2FE86D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3445282" y="26289000"/>
+          <a:ext cx="2471615" cy="2022231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>モーメントポイントとは？</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ポイントをためる</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ポイントを使う</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>149795</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>149794</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="テキスト ボックス 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77196402-7ED4-40ED-9CDA-68FF5E5F1375}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6216487" y="26289000"/>
+          <a:ext cx="2471615" cy="2022231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>銀行</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>保険</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>住宅ローン</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>各種ローン</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>カードローン申し込み</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="テキスト ボックス 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E058EB4-80D6-4F41-A496-66B6B2809F0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8987693" y="26289000"/>
+          <a:ext cx="2471615" cy="2022231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>モーメントカード新規ご入会</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>モーメントカード会員さま向け</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="正方形/長方形 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31108BDC-CF3E-4797-B052-3B5820CC5E6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="449385" y="28985308"/>
+          <a:ext cx="11234615" cy="1123461"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="50800" cap="sq" cmpd="sng">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="テキスト ボックス 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CA9A07E-D8D8-45E8-88B7-2CEA3623B277}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="898769" y="29210000"/>
+          <a:ext cx="10560539" cy="449385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>よくある質問｜お問い合わせ｜セキュリティポリシー｜プライバシーポリシー｜ご利用環境について｜サイトマップ｜企業情報</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>39077</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>39077</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="テキスト ボックス 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06A7BA6B-3964-4858-B24A-EFDA9621FB8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="937846" y="29659385"/>
+          <a:ext cx="10560539" cy="224693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Copyright 2020 (c) Moment card. All Rights Reserved.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2785,7 +7827,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:sysClr val="window" lastClr="FFFFFF">
+            <a:alpha val="60000"/>
+          </a:sysClr>
         </a:solidFill>
         <a:ln w="31750" cap="flat" cmpd="sng">
           <a:solidFill>
@@ -5221,8 +10265,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10990415" y="2291709"/>
-          <a:ext cx="154301" cy="176167"/>
+          <a:off x="11508998" y="2397542"/>
+          <a:ext cx="164885" cy="186751"/>
           <a:chOff x="6601050" y="3597503"/>
           <a:chExt cx="127626" cy="143785"/>
         </a:xfrm>
@@ -6933,8 +11977,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="680360" y="7983049"/>
-          <a:ext cx="8148328" cy="460454"/>
+          <a:off x="712110" y="8353466"/>
+          <a:ext cx="8529328" cy="481620"/>
           <a:chOff x="1251586" y="21578045"/>
           <a:chExt cx="4196061" cy="471490"/>
         </a:xfrm>
@@ -10873,8 +15917,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="732893" y="22345349"/>
-          <a:ext cx="401067" cy="351428"/>
+          <a:off x="733631" y="22368977"/>
+          <a:ext cx="401313" cy="351674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11673,8 +16717,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="680362" y="7983049"/>
-          <a:ext cx="8148328" cy="460454"/>
+          <a:off x="712112" y="8353466"/>
+          <a:ext cx="8529328" cy="481620"/>
           <a:chOff x="1251586" y="21578045"/>
           <a:chExt cx="4196061" cy="471495"/>
         </a:xfrm>
@@ -11892,7 +16936,10 @@
             <a:ext cx="2061091" cy="464157"/>
           </a:xfrm>
           <a:prstGeom prst="round2SameRect">
-            <a:avLst/>
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 16667"/>
+              <a:gd name="adj2" fmla="val 0"/>
+            </a:avLst>
           </a:prstGeom>
           <a:solidFill>
             <a:schemeClr val="bg1"/>
@@ -13681,8 +18728,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="463223" y="26124174"/>
-          <a:ext cx="11078491" cy="3999183"/>
+          <a:off x="484390" y="27362424"/>
+          <a:ext cx="11597074" cy="4189683"/>
           <a:chOff x="465207" y="26046783"/>
           <a:chExt cx="11127109" cy="4017042"/>
         </a:xfrm>
@@ -16925,9 +21972,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C9DE01-821B-4D7E-A432-3AB0622A0ECA}">
   <dimension ref="C3:BR28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="AB138" sqref="AB138"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="3" style="4" customWidth="1"/>
     <col min="2" max="68" width="3" style="4"/>
@@ -16935,7 +21984,7 @@
     <col min="70" max="16384" width="3" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:56" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:56" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -16989,7 +22038,7 @@
       <c r="AY3" s="2"/>
       <c r="AZ3" s="3"/>
     </row>
-    <row r="4" spans="3:56" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:56" ht="18" customHeight="1" x14ac:dyDescent="0.6">
       <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
@@ -17043,7 +22092,7 @@
       <c r="AY4" s="6"/>
       <c r="AZ4" s="7"/>
     </row>
-    <row r="5" spans="3:56" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:56" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -17097,7 +22146,7 @@
       <c r="AY5" s="2"/>
       <c r="AZ5" s="3"/>
     </row>
-    <row r="6" spans="3:56" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:56" ht="18" customHeight="1" x14ac:dyDescent="0.6">
       <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
@@ -17153,12 +22202,12 @@
       <c r="AY6" s="6"/>
       <c r="AZ6" s="7"/>
     </row>
-    <row r="11" spans="3:56" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:56" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="BD11" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="70:70" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="70:70" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="BR28" s="11"/>
     </row>
   </sheetData>
@@ -17180,17 +22229,17 @@
   </sheetPr>
   <dimension ref="C3:CB33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="BC12" sqref="BC12"/>
+    <sheetView topLeftCell="A112" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="S25" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="3" style="4" customWidth="1"/>
     <col min="2" max="16384" width="3" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:76" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:76" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -17244,7 +22293,7 @@
       <c r="AY3" s="2"/>
       <c r="AZ3" s="3"/>
     </row>
-    <row r="4" spans="3:76" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:76" ht="18" customHeight="1" x14ac:dyDescent="0.6">
       <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
@@ -17298,7 +22347,7 @@
       <c r="AY4" s="6"/>
       <c r="AZ4" s="7"/>
     </row>
-    <row r="5" spans="3:76" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:76" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -17352,7 +22401,7 @@
       <c r="AY5" s="2"/>
       <c r="AZ5" s="3"/>
     </row>
-    <row r="6" spans="3:76" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:76" ht="18" customHeight="1" x14ac:dyDescent="0.6">
       <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
@@ -17408,23 +22457,23 @@
       <c r="AY6" s="6"/>
       <c r="AZ6" s="7"/>
     </row>
-    <row r="10" spans="3:76" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:76" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="BX10" s="13"/>
     </row>
-    <row r="28" spans="61:80" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="61:80" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="BR28" s="11"/>
     </row>
-    <row r="29" spans="61:80" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="61:80" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="BI29" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="61:80" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="61:80" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="CB32" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="76:76" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="76:76" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="BX33" s="4" t="s">
         <v>5</v>
       </c>
